--- a/biology/Botanique/Super_nova_(Murakami)/Super_nova_(Murakami).xlsx
+++ b/biology/Botanique/Super_nova_(Murakami)/Super_nova_(Murakami).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Super nova[1] est une acrylique sur toile marouflée peinte sur panneau de 7 cm d'épaisseur, réalisée par Takashi Murakami en 1999.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Super nova est une acrylique sur toile marouflée peinte sur panneau de 7 cm d'épaisseur, réalisée par Takashi Murakami en 1999.
 Il s'agit d'un tableau panoramique dont le motif principal et répété à l'infini est le champignon, décliné sous diverses formes.
 Cette icône du champignon est inspirée de la sculpture My Lonesome Cowboy : un personnage qui tient son pénis dans la main : un pénis qui lui fait penser à un champignon avec son côté kawaii. 
 Il fait aussi allusion à l’artiste-illustrateur très populaire au début du XXe siècle, Yumeji Takehisa (ère Taishô 1912-1926) après s’être inspiré de ses illustrations aux motifs de champignons qui lui paraissent érotiques, mignons et liés à l’univers fantastique des contes de fées.   
